--- a/dataFiles/signup/Signup-Positive.xlsx
+++ b/dataFiles/signup/Signup-Positive.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="82">
   <si>
     <t>Test ID</t>
   </si>
@@ -85,103 +85,115 @@
     <t>To verify the employee's selection for the 'Human Resources' mental health program."</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>I AM AN EMPLOYEE</t>
+  </si>
+  <si>
+    <t>I AM A STUDENT</t>
+  </si>
+  <si>
+    <t>Referral Source</t>
+  </si>
+  <si>
+    <t>prabhaAuto</t>
+  </si>
+  <si>
+    <t>prabhaAutoTtMV7494@mailinator.com</t>
+  </si>
+  <si>
+    <t>Prabha@123</t>
+  </si>
+  <si>
+    <t>PrabhaAutoPjKz</t>
+  </si>
+  <si>
+    <t>automationuntz</t>
+  </si>
+  <si>
+    <t>2505551234</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>29032000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of birth (DD-MM-YYYY) </t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>1276898</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Mental Health</t>
+  </si>
+  <si>
+    <t>SignUp_Positive_02</t>
+  </si>
+  <si>
+    <t>To verify the employee selection for the 'Union Representative' cancer program."</t>
+  </si>
+  <si>
+    <t>prabhaAutolbhg9009@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutomdXA</t>
+  </si>
+  <si>
+    <t>automationxras</t>
+  </si>
+  <si>
+    <t>Union Representative</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>SignUp_Positive_03</t>
+  </si>
+  <si>
+    <t>To verify the employee's selection for the 'Flyer/Handout' mental health program."</t>
+  </si>
+  <si>
+    <t>Flyer/Handout</t>
+  </si>
+  <si>
+    <t>SignUp_Positive_04</t>
+  </si>
+  <si>
+    <t>To verify the employee's selection for the 'Lunch and Learnt' chronic program."</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>I AM AN EMPLOYEE</t>
-  </si>
-  <si>
-    <t>I AM A STUDENT</t>
-  </si>
-  <si>
-    <t>Referral Source</t>
-  </si>
-  <si>
-    <t>prabhaAuto</t>
-  </si>
-  <si>
-    <t>prabhaAutogZjq6795@mailinator.com</t>
-  </si>
-  <si>
-    <t>Prabha@123</t>
-  </si>
-  <si>
-    <t>PrabhaAutoSVSB</t>
-  </si>
-  <si>
-    <t>automationyztt</t>
-  </si>
-  <si>
-    <t>2505551234</t>
-  </si>
-  <si>
-    <t>tester</t>
-  </si>
-  <si>
-    <t>Human Resources</t>
-  </si>
-  <si>
-    <t>29032000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of birth (DD-MM-YYYY) </t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>1276898</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>Mental Health</t>
-  </si>
-  <si>
-    <t>SignUp_Positive_02</t>
-  </si>
-  <si>
-    <t>To verify the employee selection for the 'Union Representative' cancer program."</t>
-  </si>
-  <si>
-    <t>prabhaAutolbhg9009@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaAutomdXA</t>
-  </si>
-  <si>
-    <t>automationxras</t>
-  </si>
-  <si>
-    <t>Union Representative</t>
-  </si>
-  <si>
-    <t>Cancer</t>
-  </si>
-  <si>
-    <t>SignUp_Positive_03</t>
-  </si>
-  <si>
-    <t>To verify the employee's selection for the 'Flyer/Handout' mental health program."</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Flyer/Handout</t>
-  </si>
-  <si>
-    <t>SignUp_Positive_04</t>
-  </si>
-  <si>
-    <t>To verify the employee's selection for the 'Lunch and Learnt' mental health program."</t>
+    <t>prabhaAutoErsX9791@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutooOBA</t>
+  </si>
+  <si>
+    <t>automationgxpl</t>
   </si>
   <si>
     <t>Lunch and Learn</t>
+  </si>
+  <si>
+    <t>Chronic Disease</t>
   </si>
   <si>
     <t>SignUp_Positive_05</t>
@@ -636,7 +648,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -866,7 +878,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>24</v>
@@ -896,7 +908,7 @@
         <v>34</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>36</v>
@@ -919,13 +931,13 @@
     </row>
     <row r="5" ht="60" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>24</v>
@@ -942,12 +954,18 @@
       <c r="H5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="J5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="M5" s="5" t="s">
         <v>33</v>
       </c>
@@ -955,7 +973,7 @@
         <v>34</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>36</v>
@@ -973,18 +991,18 @@
         <v>40</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" ht="45" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>24</v>
@@ -1014,7 +1032,7 @@
         <v>34</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>36</v>
@@ -1037,13 +1055,13 @@
     </row>
     <row r="7" ht="45" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>24</v>
@@ -1073,7 +1091,7 @@
         <v>34</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>36</v>
@@ -1091,18 +1109,18 @@
         <v>40</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="45" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
@@ -1132,7 +1150,7 @@
         <v>34</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>36</v>
@@ -1150,18 +1168,18 @@
         <v>40</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>24</v>
@@ -1191,7 +1209,7 @@
         <v>34</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>36</v>
@@ -1209,18 +1227,18 @@
         <v>40</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>24</v>
@@ -1250,7 +1268,7 @@
         <v>34</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>36</v>
@@ -1268,18 +1286,18 @@
         <v>40</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>24</v>
@@ -1309,7 +1327,7 @@
         <v>34</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>36</v>
@@ -1327,18 +1345,18 @@
         <v>40</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>24</v>
@@ -1368,7 +1386,7 @@
         <v>34</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>36</v>
@@ -1386,7 +1404,7 @@
         <v>40</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/dataFiles/signup/Signup-Positive.xlsx
+++ b/dataFiles/signup/Signup-Positive.xlsx
@@ -85,69 +85,72 @@
     <t>To verify the employee's selection for the 'Human Resources' mental health program."</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>I AM AN EMPLOYEE</t>
+  </si>
+  <si>
+    <t>I AM A STUDENT</t>
+  </si>
+  <si>
+    <t>Referral Source</t>
+  </si>
+  <si>
+    <t>prabhaAuto</t>
+  </si>
+  <si>
+    <t>prabhaAutohzLW5080@mailinator.com</t>
+  </si>
+  <si>
+    <t>Prabha@123</t>
+  </si>
+  <si>
+    <t>PrabhaAutoZjVh</t>
+  </si>
+  <si>
+    <t>automationlebs</t>
+  </si>
+  <si>
+    <t>2505551234</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>29032000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of birth (DD-MM-YYYY) </t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>1276898</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Mental Health</t>
+  </si>
+  <si>
+    <t>SignUp_Positive_02</t>
+  </si>
+  <si>
+    <t>To verify the employee selection for the 'Union Representative' cancer program."</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>I AM AN EMPLOYEE</t>
-  </si>
-  <si>
-    <t>I AM A STUDENT</t>
-  </si>
-  <si>
-    <t>Referral Source</t>
-  </si>
-  <si>
-    <t>prabhaAuto</t>
-  </si>
-  <si>
-    <t>prabhaAutoTtMV7494@mailinator.com</t>
-  </si>
-  <si>
-    <t>Prabha@123</t>
-  </si>
-  <si>
-    <t>PrabhaAutoPjKz</t>
-  </si>
-  <si>
-    <t>automationuntz</t>
-  </si>
-  <si>
-    <t>2505551234</t>
-  </si>
-  <si>
-    <t>tester</t>
-  </si>
-  <si>
-    <t>Human Resources</t>
-  </si>
-  <si>
-    <t>29032000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of birth (DD-MM-YYYY) </t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>1276898</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>Mental Health</t>
-  </si>
-  <si>
-    <t>SignUp_Positive_02</t>
-  </si>
-  <si>
-    <t>To verify the employee selection for the 'Union Representative' cancer program."</t>
-  </si>
-  <si>
     <t>prabhaAutolbhg9009@mailinator.com</t>
   </si>
   <si>
@@ -176,9 +179,6 @@
   </si>
   <si>
     <t>To verify the employee's selection for the 'Lunch and Learnt' chronic program."</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>prabhaAutoErsX9791@mailinator.com</t>
@@ -648,7 +648,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -813,7 +813,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>24</v>
@@ -831,16 +831,16 @@
         <v>28</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>33</v>
@@ -849,7 +849,7 @@
         <v>34</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>36</v>
@@ -867,18 +867,18 @@
         <v>40</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>24</v>
@@ -908,7 +908,7 @@
         <v>34</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>36</v>
@@ -931,13 +931,13 @@
     </row>
     <row r="5" ht="60" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>24</v>
@@ -1002,7 +1002,7 @@
         <v>61</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>24</v>
@@ -1061,7 +1061,7 @@
         <v>64</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>24</v>
@@ -1120,7 +1120,7 @@
         <v>68</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
@@ -1179,7 +1179,7 @@
         <v>71</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>24</v>
@@ -1238,7 +1238,7 @@
         <v>74</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>24</v>
@@ -1297,7 +1297,7 @@
         <v>77</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>24</v>
@@ -1356,7 +1356,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>24</v>

--- a/dataFiles/signup/Signup-Positive.xlsx
+++ b/dataFiles/signup/Signup-Positive.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="87">
   <si>
     <t>Test ID</t>
   </si>
@@ -79,85 +79,91 @@
     <t>Program</t>
   </si>
   <si>
+    <t>Approve Status</t>
+  </si>
+  <si>
     <t>SignUp_Positive_01</t>
   </si>
   <si>
     <t>To verify the employee's selection for the 'Human Resources' mental health program."</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>I AM AN EMPLOYEE</t>
+  </si>
+  <si>
+    <t>I AM A STUDENT</t>
+  </si>
+  <si>
+    <t>Referral Source</t>
+  </si>
+  <si>
+    <t>prabhaAuto</t>
+  </si>
+  <si>
+    <t>prabhaAutoPGYh2322@mailinator.com</t>
+  </si>
+  <si>
+    <t>Prabha@123</t>
+  </si>
+  <si>
+    <t>PrabhaAutoYzPD</t>
+  </si>
+  <si>
+    <t>automationyhvq</t>
+  </si>
+  <si>
+    <t>2505551234</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>29032000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of birth (DD-MM-YYYY) </t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>1276898</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Mental Health</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>SignUp_Positive_02</t>
+  </si>
+  <si>
+    <t>To verify the employee selection for the 'Union Representative' cancer program."</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>I AM AN EMPLOYEE</t>
-  </si>
-  <si>
-    <t>I AM A STUDENT</t>
-  </si>
-  <si>
-    <t>Referral Source</t>
-  </si>
-  <si>
-    <t>prabhaAuto</t>
-  </si>
-  <si>
-    <t>prabhaAutohzLW5080@mailinator.com</t>
-  </si>
-  <si>
-    <t>Prabha@123</t>
-  </si>
-  <si>
-    <t>PrabhaAutoZjVh</t>
-  </si>
-  <si>
-    <t>automationlebs</t>
-  </si>
-  <si>
-    <t>2505551234</t>
-  </si>
-  <si>
-    <t>tester</t>
-  </si>
-  <si>
-    <t>Human Resources</t>
-  </si>
-  <si>
-    <t>29032000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of birth (DD-MM-YYYY) </t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>1276898</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>Mental Health</t>
-  </si>
-  <si>
-    <t>SignUp_Positive_02</t>
-  </si>
-  <si>
-    <t>To verify the employee selection for the 'Union Representative' cancer program."</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>prabhaAutolbhg9009@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaAutomdXA</t>
-  </si>
-  <si>
-    <t>automationxras</t>
+    <t>prabhaAutoOICK1226@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoiTrt</t>
+  </si>
+  <si>
+    <t>automationumer</t>
   </si>
   <si>
     <t>Union Representative</t>
@@ -169,31 +175,43 @@
     <t>SignUp_Positive_03</t>
   </si>
   <si>
-    <t>To verify the employee's selection for the 'Flyer/Handout' mental health program."</t>
+    <t>To verify the employee's selection for the 'Flyer/Handout' Chronic program."</t>
+  </si>
+  <si>
+    <t>prabhaAutonygz3232@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoMuDx</t>
+  </si>
+  <si>
+    <t>automationdibk</t>
   </si>
   <si>
     <t>Flyer/Handout</t>
   </si>
   <si>
+    <t>Chronic Disease</t>
+  </si>
+  <si>
     <t>SignUp_Positive_04</t>
   </si>
   <si>
-    <t>To verify the employee's selection for the 'Lunch and Learnt' chronic program."</t>
-  </si>
-  <si>
-    <t>prabhaAutoErsX9791@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaAutooOBA</t>
-  </si>
-  <si>
-    <t>automationgxpl</t>
+    <t>To verify the employee's selection for the 'Lunch and Learnt' elder care program."</t>
+  </si>
+  <si>
+    <t>prabhaAutoRSNd5604@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoOMXS</t>
+  </si>
+  <si>
+    <t>automationwxoo</t>
   </si>
   <si>
     <t>Lunch and Learn</t>
   </si>
   <si>
-    <t>Chronic Disease</t>
+    <t>Elder Care</t>
   </si>
   <si>
     <t>SignUp_Positive_05</t>
@@ -212,9 +230,6 @@
   </si>
   <si>
     <t>Online</t>
-  </si>
-  <si>
-    <t>Elder Care</t>
   </si>
   <si>
     <t>SignUp_Positive_07</t>
@@ -645,10 +660,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -673,9 +688,10 @@
     <col min="19" max="19" width="9.7109375" customWidth="1"/>
     <col min="20" max="20" width="15.140625" customWidth="1"/>
     <col min="21" max="21" width="8.7109375" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,673 +755,695 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" ht="60" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" ht="60" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="6"/>
+    </row>
+    <row r="4" ht="60" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V4" s="6"/>
+    </row>
+    <row r="5" ht="60" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V5" s="6"/>
+    </row>
+    <row r="6" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" ht="60" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" ht="60" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" ht="60" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" ht="45" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="V6" s="6"/>
     </row>
-    <row r="7" ht="45" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="V7" s="6"/>
     </row>
-    <row r="8" ht="45" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="V8" s="6"/>
     </row>
-    <row r="9" ht="45" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="V9" s="6"/>
     </row>
-    <row r="10" ht="45" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="V10" s="6"/>
     </row>
-    <row r="11" ht="45" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="V11" s="6"/>
     </row>
-    <row r="12" ht="45" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="V12" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="8">

--- a/dataFiles/signup/Signup-Positive.xlsx
+++ b/dataFiles/signup/Signup-Positive.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="107">
   <si>
     <t>Test ID</t>
   </si>
@@ -88,7 +88,7 @@
     <t>To verify the employee's selection for the 'Human Resources' mental health program."</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Employee</t>
@@ -106,16 +106,16 @@
     <t>prabhaAuto</t>
   </si>
   <si>
-    <t>prabhaAutoPGYh2322@mailinator.com</t>
+    <t>prabhaAutodYXd9577@mailinator.com</t>
   </si>
   <si>
     <t>Prabha@123</t>
   </si>
   <si>
-    <t>PrabhaAutoYzPD</t>
-  </si>
-  <si>
-    <t>automationyhvq</t>
+    <t>PrabhaAutoJiHu</t>
+  </si>
+  <si>
+    <t>automationzyqm</t>
   </si>
   <si>
     <t>2505551234</t>
@@ -154,16 +154,13 @@
     <t>To verify the employee selection for the 'Union Representative' cancer program."</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>prabhaAutoOICK1226@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaAutoiTrt</t>
-  </si>
-  <si>
-    <t>automationumer</t>
+    <t>prabhaAutoLHsD1219@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoSsMg</t>
+  </si>
+  <si>
+    <t>automationffmg</t>
   </si>
   <si>
     <t>Union Representative</t>
@@ -178,13 +175,13 @@
     <t>To verify the employee's selection for the 'Flyer/Handout' Chronic program."</t>
   </si>
   <si>
-    <t>prabhaAutonygz3232@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaAutoMuDx</t>
-  </si>
-  <si>
-    <t>automationdibk</t>
+    <t>prabhaAutoBuXF2428@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutomIrY</t>
+  </si>
+  <si>
+    <t>automationrrfx</t>
   </si>
   <si>
     <t>Flyer/Handout</t>
@@ -199,13 +196,13 @@
     <t>To verify the employee's selection for the 'Lunch and Learnt' elder care program."</t>
   </si>
   <si>
-    <t>prabhaAutoRSNd5604@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaAutoOMXS</t>
-  </si>
-  <si>
-    <t>automationwxoo</t>
+    <t>prabhaAutoMete7768@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutojkgZ</t>
+  </si>
+  <si>
+    <t>automationisoo</t>
   </si>
   <si>
     <t>Lunch and Learn</t>
@@ -220,6 +217,15 @@
     <t>To verify the employee's selection for the 'Radio Ad' mental health program."</t>
   </si>
   <si>
+    <t>prabhaAutoYfhl3237@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoeiNt</t>
+  </si>
+  <si>
+    <t>automationuqfi</t>
+  </si>
+  <si>
     <t>Radio Ad</t>
   </si>
   <si>
@@ -229,15 +235,36 @@
     <t>To verify the employee's selection for the 'Online' mental health program."</t>
   </si>
   <si>
+    <t>prabhaAutoLakQ4814@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutobHAL</t>
+  </si>
+  <si>
+    <t>automationaijj</t>
+  </si>
+  <si>
     <t>Online</t>
   </si>
   <si>
+    <t>Not Approved</t>
+  </si>
+  <si>
     <t>SignUp_Positive_07</t>
   </si>
   <si>
     <t>To verify the employee's selection for the 'Friend/Co-Worker' mental health program."</t>
   </si>
   <si>
+    <t>prabhaAutoVKSX1856@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutorwdx</t>
+  </si>
+  <si>
+    <t>automationmnew</t>
+  </si>
+  <si>
     <t>Friend/Co-Worker</t>
   </si>
   <si>
@@ -247,6 +274,15 @@
     <t>To verify the employee's selection for the 'Occupational Health' mental health program."</t>
   </si>
   <si>
+    <t>prabhaAutovjjc6591@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoEnyX</t>
+  </si>
+  <si>
+    <t>automationxpzs</t>
+  </si>
+  <si>
     <t>Occupational Health</t>
   </si>
   <si>
@@ -256,6 +292,15 @@
     <t>To verify the employee's selection for the 'Insurance' mental health program."</t>
   </si>
   <si>
+    <t>prabhaAutokwEe3754@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutokorH</t>
+  </si>
+  <si>
+    <t>automationnsjf</t>
+  </si>
+  <si>
     <t>Insurance</t>
   </si>
   <si>
@@ -265,13 +310,28 @@
     <t>To verify the employee's selection for the 'other' mental health program."</t>
   </si>
   <si>
-    <t>other</t>
+    <t>prabhaAutoEZAa2059@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoBHcb</t>
+  </si>
+  <si>
+    <t>automationligb</t>
   </si>
   <si>
     <t>SignUp_Positive_11</t>
   </si>
   <si>
     <t>To verify the employee's selection for the 'Benefits Book' mental health program."</t>
+  </si>
+  <si>
+    <t>prabhaAutoVgwZ6376@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoWlBz</t>
+  </si>
+  <si>
+    <t>automationzvwz</t>
   </si>
   <si>
     <t>Benefits Book</t>
@@ -663,7 +723,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -835,7 +895,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>25</v>
@@ -853,16 +913,16 @@
         <v>29</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>34</v>
@@ -871,7 +931,7 @@
         <v>35</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>37</v>
@@ -889,19 +949,19 @@
         <v>41</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V3" s="6"/>
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>25</v>
@@ -919,16 +979,16 @@
         <v>29</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>34</v>
@@ -937,7 +997,7 @@
         <v>35</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>37</v>
@@ -955,19 +1015,19 @@
         <v>41</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V4" s="6"/>
     </row>
     <row r="5" ht="60" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>25</v>
@@ -985,16 +1045,16 @@
         <v>29</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>34</v>
@@ -1003,7 +1063,7 @@
         <v>35</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>37</v>
@@ -1021,16 +1081,16 @@
         <v>41</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V5" s="6"/>
     </row>
     <row r="6" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>24</v>
@@ -1050,12 +1110,18 @@
       <c r="H6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="M6" s="5" t="s">
         <v>34</v>
       </c>
@@ -1063,7 +1129,7 @@
         <v>35</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>37</v>
@@ -1087,10 +1153,10 @@
     </row>
     <row r="7" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>24</v>
@@ -1110,12 +1176,18 @@
       <c r="H7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="J7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="M7" s="5" t="s">
         <v>34</v>
       </c>
@@ -1123,7 +1195,7 @@
         <v>35</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>37</v>
@@ -1141,16 +1213,18 @@
         <v>41</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="V7" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="8" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>24</v>
@@ -1170,12 +1244,18 @@
       <c r="H8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="J8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="M8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1183,7 +1263,7 @@
         <v>35</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>37</v>
@@ -1201,16 +1281,16 @@
         <v>41</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V8" s="6"/>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>24</v>
@@ -1230,12 +1310,18 @@
       <c r="H9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="J9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="M9" s="5" t="s">
         <v>34</v>
       </c>
@@ -1243,7 +1329,7 @@
         <v>35</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>37</v>
@@ -1261,16 +1347,18 @@
         <v>41</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="V9" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>24</v>
@@ -1290,12 +1378,18 @@
       <c r="H10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="J10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="M10" s="5" t="s">
         <v>34</v>
       </c>
@@ -1303,7 +1397,7 @@
         <v>35</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>37</v>
@@ -1321,16 +1415,18 @@
         <v>41</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="V10" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>24</v>
@@ -1350,12 +1446,18 @@
       <c r="H11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="J11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="M11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1381,16 +1483,18 @@
         <v>41</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="V11" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>24</v>
@@ -1410,12 +1514,18 @@
       <c r="H12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="J12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="M12" s="5" t="s">
         <v>34</v>
       </c>
@@ -1423,7 +1533,7 @@
         <v>35</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>37</v>
@@ -1441,7 +1551,7 @@
         <v>41</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V12" s="6"/>
     </row>
